--- a/assets/format/laporan-kinerja.xlsx
+++ b/assets/format/laporan-kinerja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aiscript\tunjangan-kinerja\assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F333AE-DE37-4A32-A51B-38246AE6CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE0168-EB26-450C-BD02-31D7C1ADF9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lap Bulanan Pegawai" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="117">
   <si>
     <t>:</t>
   </si>
@@ -313,6 +313,84 @@
   </si>
   <si>
     <t xml:space="preserve">Banjarmasin,  </t>
+  </si>
+  <si>
+    <t>Membuat notulen tentang penjelasan kegiatan tahun anggara 2021</t>
+  </si>
+  <si>
+    <t>Dokumen</t>
+  </si>
+  <si>
+    <t>BPPMDDTT</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengikuti zoom tentang pedoman umum pelatihan </t>
+  </si>
+  <si>
+    <t>Dokumentasi</t>
+  </si>
+  <si>
+    <t>BPPMDDTT, PSM</t>
+  </si>
+  <si>
+    <t>Mengikuti zoom tentang penjelasan Tugas dan fungsi BPSDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membuat kurikulum pelatihan BUMDesa </t>
+  </si>
+  <si>
+    <t>PSM</t>
+  </si>
+  <si>
+    <t>Membuat laporan telaah staf</t>
+  </si>
+  <si>
+    <t>Mengikuti zoom tentang pedoman umum pelatihan final</t>
+  </si>
+  <si>
+    <t>Mengikuti rapat PSM tentang persipan pelatihan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengikuti rapat PSM tentang pembuatan bahan ajar dan PPT </t>
+  </si>
+  <si>
+    <t>Melakukan rekrument peserta pelatihan BUMDesa di Kab. Tabalong</t>
+  </si>
+  <si>
+    <t>Dokumentai</t>
+  </si>
+  <si>
+    <t>Melakukan rekrument peserta pelatihan BUMDesa di Kab. Kadangan</t>
+  </si>
+  <si>
+    <t>Melakukan pembuatan laporan rekrutment dan seleksi calon peserta pelatihan pengelolaan BUMDesa angkatan II</t>
+  </si>
+  <si>
+    <t>Laporan</t>
+  </si>
+  <si>
+    <t>Melakukan pembuatan Jadwal pelatihan BUMDesa, Merevisi kurikulum pelatihan BUMDesa</t>
+  </si>
+  <si>
+    <t>Melakukan pelatihan BUMDesa di Kab. Kotawaringi Barat Kalimantan Selatan</t>
+  </si>
+  <si>
+    <t>Mengolah nilai post test dan pre test</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Membuat laporan pelatihan BUMDesa angkatan III</t>
+  </si>
+  <si>
+    <t>Nur Syifa Rahma</t>
+  </si>
+  <si>
+    <t>12345500</t>
   </si>
 </sst>
 </file>
@@ -570,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -628,12 +706,6 @@
     <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,56 +749,92 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -741,54 +849,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1184,16 +1250,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1212,25 +1278,27 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="32">
         <v>1</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -1238,13 +1306,15 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="32">
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -1252,7 +1322,7 @@
       <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="32">
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -1266,7 +1336,7 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="32">
         <v>4</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -1280,13 +1350,13 @@
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="32">
         <v>5</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -1294,40 +1364,40 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="34" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="32" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1347,347 +1417,557 @@
       <c r="E14" s="23">
         <v>5</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="45">
         <v>6</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="74">
         <v>1</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="42"/>
+      <c r="B15" s="40">
+        <v>44256</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="74">
         <v>2</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="B16" s="40">
+        <v>44257</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="74">
         <v>3</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="34"/>
+      <c r="B17" s="40">
+        <v>44258</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="74">
         <v>4</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="34"/>
+      <c r="B18" s="40">
+        <v>44259</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="43"/>
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="74">
         <v>5</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="45"/>
+      <c r="B19" s="40">
+        <v>44260</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="74">
         <v>6</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="B20" s="40">
+        <v>44263</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="74">
         <v>7</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="B21" s="40">
+        <v>44264</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="74">
         <v>8</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
+      <c r="B22" s="40">
+        <v>44265</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="74">
         <v>9</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="B23" s="40">
+        <v>44270</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="74">
         <v>10</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="B24" s="40">
+        <v>44271</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="74">
         <v>11</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="B25" s="40">
+        <v>44272</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
     </row>
     <row r="26" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="74">
         <v>12</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="B26" s="40">
+        <v>44273</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="74">
         <v>13</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="B27" s="40">
+        <v>44274</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="74">
         <v>14</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="B28" s="40">
+        <v>44277</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="74">
         <v>15</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="B29" s="40">
+        <v>44278</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="74">
         <v>16</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="B30" s="40">
+        <v>44279</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="74">
         <v>17</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="43">
+      <c r="B31" s="40">
+        <v>44280</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="74">
         <v>18</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
+      <c r="B32" s="40">
+        <v>44281</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
+      <c r="A33" s="74">
         <v>19</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
+      <c r="B33" s="40">
+        <v>44284</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
     </row>
     <row r="34" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
+      <c r="A34" s="74">
         <v>20</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
+      <c r="B34" s="40">
+        <v>44285</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46">
+      <c r="A35" s="43">
         <v>21</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
+      <c r="B35" s="30">
+        <v>44286</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="33" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+    <row r="38" spans="1:8" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="39"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="50"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="50"/>
+      <c r="E40" s="44"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="36" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="50"/>
+      <c r="E41" s="44"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" s="38" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="37" t="s">
         <v>38</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" s="38" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="36" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
@@ -1697,7 +1977,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="12"/>
@@ -1707,7 +1987,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" s="38" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
@@ -1741,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="F15" sqref="F15:I15"/>
     </sheetView>
   </sheetViews>
@@ -1763,32 +2043,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="str">
@@ -1829,20 +2109,20 @@
       <c r="J4" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -1852,21 +2132,21 @@
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="72"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="75"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -1876,21 +2156,21 @@
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="72"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="3">
         <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -1900,21 +2180,21 @@
       <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="77"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="3">
         <v>3</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="78" t="s">
+      <c r="H9" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
     </row>
     <row r="10" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -1924,21 +2204,21 @@
       <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="3">
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="76" t="s">
+      <c r="H10" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="77"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -1948,58 +2228,58 @@
       <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="77"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="3">
         <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="76" t="s">
+      <c r="H11" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="79"/>
-      <c r="J11" s="77"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="67" t="s">
+      <c r="E12" s="66"/>
+      <c r="F12" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="63" t="s">
+      <c r="E13" s="63"/>
+      <c r="F13" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="2">
         <v>92</v>
       </c>
@@ -2009,67 +2289,67 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="69" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="4">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="63" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="2">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="66" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
       <c r="J16" s="2">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="66" t="s">
+      <c r="E17" s="63"/>
+      <c r="F17" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
       <c r="J17" s="2">
         <v>92</v>
       </c>
@@ -2079,35 +2359,35 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="63" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="2">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64" t="s">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="63" t="s">
+      <c r="E19" s="63"/>
+      <c r="F19" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="2">
         <v>91</v>
       </c>
@@ -2117,17 +2397,17 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="63" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="2">
         <v>92</v>
       </c>
@@ -2140,21 +2420,21 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="63" t="s">
+      <c r="E21" s="73"/>
+      <c r="F21" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="2">
         <v>92</v>
       </c>
@@ -2164,19 +2444,19 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="62" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63" t="s">
+      <c r="E22" s="72"/>
+      <c r="F22" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="2">
         <v>91</v>
       </c>
@@ -2186,19 +2466,19 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="62" t="s">
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63" t="s">
+      <c r="E23" s="72"/>
+      <c r="F23" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="2">
         <v>92</v>
       </c>
@@ -2208,19 +2488,19 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="62" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63" t="s">
+      <c r="E24" s="72"/>
+      <c r="F24" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
       <c r="J24" s="2">
         <v>91</v>
       </c>
@@ -2230,19 +2510,19 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="62" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63" t="s">
+      <c r="E25" s="72"/>
+      <c r="F25" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
       <c r="J25" s="2">
         <v>92</v>
       </c>
@@ -2259,17 +2539,17 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
       <c r="J26" s="8">
         <f>N20+N25</f>
         <v>91.704999999999998</v>
@@ -2280,7 +2560,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="27" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2308,7 +2588,7 @@
       <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="70"/>
+      <c r="I30" s="53"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -2320,7 +2600,7 @@
       <c r="D31" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="70"/>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
@@ -2343,12 +2623,12 @@
       <c r="D33" t="s">
         <v>2</v>
       </c>
-      <c r="I33" s="49" t="s">
+      <c r="I33" s="42" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="41" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2357,6 +2637,32 @@
     <row r="37" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A21:C25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A13:C20"/>
+    <mergeCell ref="D13:E16"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F14:I14"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:J6"/>
@@ -2373,32 +2679,6 @@
     <mergeCell ref="D19:E20"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A21:C25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A13:C20"/>
-    <mergeCell ref="D13:E16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
